--- a/src/test/resources/testdata/anusha.xlsx
+++ b/src/test/resources/testdata/anusha.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nalla\git\HybridFramework1\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B74487E-4798-4C63-A472-D9521F689509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B2D264-1136-4F5B-A05C-D8389B0B19A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8724" yWindow="2856" windowWidth="13272" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FBlogin" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>test(Row,Coloum)
 6,4</t>
@@ -47,12 +47,46 @@
   <si>
     <t>SDFG32454$335</t>
   </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>SDFG32454$336</t>
+  </si>
+  <si>
+    <t>SDFG32454$337</t>
+  </si>
+  <si>
+    <t>SDFG32454$338</t>
+  </si>
+  <si>
+    <t>h2otestingtools@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>tertuyjcghfhhWE324RDFZS@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>ghjkghjgjkl6r77iRDFZS@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>yi67uyi4RDFZS4645@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>In-valid credential</t>
+  </si>
+  <si>
+    <t>Valid credential</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +106,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,14 +150,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -399,37 +444,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BA091F-90F1-47AD-9719-D556D65B21D2}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="35.44140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.44140625"/>
+    <col min="3" max="3" customWidth="true" width="35.109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{D66F16B5-9E9D-4235-9220-05AD7726A50B}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{218FF011-2A5C-454F-B01C-5784E98476E5}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{8542677E-EE6A-48A6-9B79-97EC120A00B0}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{1E0F8456-BCBD-4C0E-B7AA-51A2ABDF7485}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{742BEC11-7349-4C94-A644-FB7C14A883AE}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{BA50AD09-EB1F-4538-B06F-096ABF1A10A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -457,8 +559,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.77734375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.44140625"/>
   </cols>
   <sheetData>
     <row r="7" spans="5:10" ht="28.8" x14ac:dyDescent="0.3">

--- a/src/test/resources/testdata/anusha.xlsx
+++ b/src/test/resources/testdata/anusha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anush\eclipse-workspace\HybridFramework_Demo\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nalla\git\HybridFramework1\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E242174E-5D09-421C-923E-F5BF8410A5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93FAD98-1319-409E-8BC7-30AE1D776D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FBlogin" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>test(Row,Coloum)
 6,4</t>
@@ -121,6 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,14 +487,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.08984375" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="35.44140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.44140625"/>
+    <col min="3" max="3" customWidth="true" width="35.109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -504,58 +505,58 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C2" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C3" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C4" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C5" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>16</v>
       </c>
     </row>
@@ -575,72 +576,93 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA23526-6D12-4F67-8DD7-C7D5E3755674}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.21875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C2" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C3" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C4" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="C5" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="C6" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>27</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -657,18 +679,18 @@
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.77734375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.44140625"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J14" s="2" t="s">
         <v>1</v>
       </c>
